--- a/resource/SPEC/02 SPEC Validate Inspection Plan V4.0.xlsx
+++ b/resource/SPEC/02 SPEC Validate Inspection Plan V4.0.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\workspace\narmnarmz-tools\resource\SPEC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="10905" yWindow="-15" windowWidth="10710" windowHeight="5385" tabRatio="658" firstSheet="2" activeTab="2"/>
   </bookViews>
@@ -755,9 +760,6 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>value greater than TOLERANZUN, lower than TOLERANZUN</t>
   </si>
   <si>
     <t>value greater than SOLLWERT and TOLERANZUN</t>
@@ -1320,12 +1322,15 @@
   <si>
     <t>Sampling Unit of Measure not mapping with 04-Mat.Assign</t>
   </si>
+  <si>
+    <t>value greater than TOLERANZUN, lower than TOLERANZOB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1367,7 +1372,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1400,7 +1405,7 @@
       <charset val="222"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1428,12 +1433,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1490,7 +1489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1638,14 +1637,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1654,9 +1650,9 @@
   <dxfs count="1">
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1716,7 +1712,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1751,7 +1747,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1967,7 +1963,7 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
@@ -1978,7 +1974,7 @@
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>171</v>
       </c>
@@ -2004,10 +2000,10 @@
         <v>161</v>
       </c>
       <c r="I1" s="45" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -2030,7 +2026,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -2053,10 +2049,10 @@
       <c r="H3" s="14"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
@@ -2076,7 +2072,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>204</v>
@@ -2099,7 +2095,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>140</v>
@@ -2122,7 +2118,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>202</v>
@@ -2145,10 +2141,10 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>9</v>
@@ -2168,10 +2164,10 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>10</v>
@@ -2191,10 +2187,10 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>11</v>
@@ -2210,13 +2206,13 @@
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>2</v>
@@ -2237,10 +2233,10 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>13</v>
@@ -2258,10 +2254,10 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>14</v>
@@ -2277,10 +2273,10 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>15</v>
@@ -2296,7 +2292,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="B16" s="26" t="s">
         <v>164</v>
       </c>
@@ -2304,7 +2300,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9">
       <c r="B18" s="26" t="s">
         <v>166</v>
       </c>
@@ -2312,15 +2308,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9">
       <c r="B19" s="26" t="s">
         <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -2338,7 +2334,7 @@
       <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -2349,7 +2345,7 @@
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>171</v>
       </c>
@@ -2375,10 +2371,10 @@
         <v>161</v>
       </c>
       <c r="I1" s="45" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -2401,7 +2397,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -2424,7 +2420,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>217</v>
@@ -2448,10 +2444,10 @@
         <v>172</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>140</v>
@@ -2474,7 +2470,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -2496,7 +2492,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>218</v>
@@ -2519,7 +2515,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>219</v>
@@ -2542,7 +2538,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="B9" s="56" t="s">
         <v>220</v>
@@ -2563,7 +2559,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>221</v>
@@ -2586,7 +2582,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>37</v>
@@ -2605,16 +2601,16 @@
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="B13" s="26" t="s">
         <v>164</v>
       </c>
@@ -2623,10 +2619,10 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="B15" s="26" t="s">
         <v>166</v>
       </c>
@@ -2634,7 +2630,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="B16" s="26" t="s">
         <v>167</v>
       </c>
@@ -2642,7 +2638,7 @@
         <v>168</v>
       </c>
       <c r="I16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -2653,16 +2649,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3">
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
+  <sheetPr codeName="Sheet3" filterMode="1"/>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="37"/>
     <col min="2" max="2" width="10.7109375" style="37" customWidth="1"/>
@@ -2682,7 +2676,7 @@
     <col min="16" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="25.5">
       <c r="A1" s="2" t="s">
         <v>171</v>
       </c>
@@ -2690,7 +2684,7 @@
         <v>183</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
@@ -2714,22 +2708,22 @@
         <v>161</v>
       </c>
       <c r="K1" s="47" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>162</v>
       </c>
       <c r="M1" s="47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>199</v>
       </c>
       <c r="O1" s="47" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="35" t="s">
         <v>28</v>
       </c>
@@ -2758,7 +2752,7 @@
       <c r="N2" s="35"/>
       <c r="O2" s="49"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="35" t="s">
         <v>28</v>
       </c>
@@ -2787,7 +2781,7 @@
       <c r="N3" s="35"/>
       <c r="O3" s="49"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="35" t="s">
         <v>28</v>
       </c>
@@ -2816,7 +2810,7 @@
       <c r="N4" s="35"/>
       <c r="O4" s="49"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="35" t="s">
         <v>28</v>
       </c>
@@ -2845,13 +2839,13 @@
       <c r="N5" s="35"/>
       <c r="O5" s="49"/>
     </row>
-    <row r="6" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="25.5">
       <c r="A6" s="35"/>
       <c r="B6" s="35" t="s">
         <v>175</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>46</v>
@@ -2878,7 +2872,7 @@
       <c r="N6" s="35"/>
       <c r="O6" s="49"/>
     </row>
-    <row r="7" spans="1:15" s="60" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="60" customFormat="1" ht="25.5">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="50"/>
@@ -2907,7 +2901,7 @@
       <c r="N7" s="35"/>
       <c r="O7" s="49"/>
     </row>
-    <row r="8" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="60" customFormat="1">
       <c r="A8" s="59"/>
       <c r="B8" s="59"/>
       <c r="C8" s="50"/>
@@ -2936,8 +2930,8 @@
       <c r="N8" s="59"/>
       <c r="O8" s="49"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
+    <row r="9" spans="1:15">
+      <c r="A9" s="59"/>
       <c r="B9" s="35"/>
       <c r="C9" s="49"/>
       <c r="D9" s="36" t="s">
@@ -2946,7 +2940,7 @@
       <c r="E9" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="61"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="35" t="s">
         <v>27</v>
       </c>
@@ -2963,8 +2957,8 @@
       <c r="N9" s="35"/>
       <c r="O9" s="49"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
+    <row r="10" spans="1:15">
+      <c r="A10" s="59"/>
       <c r="B10" s="35"/>
       <c r="C10" s="49"/>
       <c r="D10" s="36" t="s">
@@ -2973,7 +2967,7 @@
       <c r="E10" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="61"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="35" t="s">
         <v>27</v>
       </c>
@@ -2988,13 +2982,13 @@
       <c r="N10" s="35"/>
       <c r="O10" s="49"/>
     </row>
-    <row r="11" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="25.5">
       <c r="A11" s="35"/>
       <c r="B11" s="35" t="s">
         <v>176</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>48</v>
@@ -3021,13 +3015,13 @@
       <c r="N11" s="35"/>
       <c r="O11" s="49"/>
     </row>
-    <row r="12" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="25.5">
       <c r="A12" s="35"/>
       <c r="B12" s="35" t="s">
         <v>175</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>49</v>
@@ -3054,7 +3048,7 @@
       <c r="N12" s="35"/>
       <c r="O12" s="49"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="49"/>
@@ -3081,7 +3075,7 @@
       <c r="N13" s="35"/>
       <c r="O13" s="49"/>
     </row>
-    <row r="14" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="25.5">
       <c r="A14" s="35"/>
       <c r="B14" s="35"/>
       <c r="C14" s="49"/>
@@ -3108,7 +3102,7 @@
       <c r="N14" s="35"/>
       <c r="O14" s="49"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="49"/>
@@ -3135,7 +3129,7 @@
       <c r="N15" s="35"/>
       <c r="O15" s="49"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
       <c r="C16" s="49"/>
@@ -3162,7 +3156,7 @@
       <c r="N16" s="35"/>
       <c r="O16" s="49"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="49"/>
@@ -3189,13 +3183,13 @@
       <c r="N17" s="35"/>
       <c r="O17" s="49"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" s="35"/>
       <c r="B18" s="35" t="s">
         <v>175</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>55</v>
@@ -3217,20 +3211,20 @@
         <v>187</v>
       </c>
       <c r="K18" s="50" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L18" s="35"/>
       <c r="M18" s="49"/>
       <c r="N18" s="35"/>
       <c r="O18" s="49"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" s="35"/>
       <c r="B19" s="35" t="s">
         <v>175</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>56</v>
@@ -3252,14 +3246,14 @@
         <v>188</v>
       </c>
       <c r="K19" s="50" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L19" s="35"/>
       <c r="M19" s="49"/>
       <c r="N19" s="35"/>
       <c r="O19" s="49"/>
     </row>
-    <row r="20" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="25.5">
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="49"/>
@@ -3288,7 +3282,7 @@
       <c r="N20" s="35"/>
       <c r="O20" s="49"/>
     </row>
-    <row r="21" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="51" customHeight="1">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="49"/>
@@ -3309,17 +3303,17 @@
       </c>
       <c r="I21" s="32"/>
       <c r="J21" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K21" s="49" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M21" s="51"/>
       <c r="N21" s="35"/>
       <c r="O21" s="49"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="61"/>
+    <row r="22" spans="1:15">
+      <c r="A22" s="59"/>
       <c r="B22" s="35"/>
       <c r="C22" s="49"/>
       <c r="D22" s="36" t="s">
@@ -3331,7 +3325,7 @@
       <c r="F22" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="61" t="s">
+      <c r="G22" s="59" t="s">
         <v>27</v>
       </c>
       <c r="H22" s="35" t="s">
@@ -3339,17 +3333,17 @@
       </c>
       <c r="I22" s="22"/>
       <c r="J22" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="K22" s="61" t="s">
-        <v>353</v>
+        <v>261</v>
+      </c>
+      <c r="K22" s="49" t="s">
+        <v>352</v>
       </c>
       <c r="M22" s="51"/>
       <c r="N22" s="35"/>
       <c r="O22" s="49"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="61"/>
+    <row r="23" spans="1:15">
+      <c r="A23" s="59"/>
       <c r="B23" s="35"/>
       <c r="C23" s="49"/>
       <c r="D23" s="36" t="s">
@@ -3361,7 +3355,7 @@
       <c r="F23" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="61" t="s">
+      <c r="G23" s="59" t="s">
         <v>129</v>
       </c>
       <c r="H23" s="38" t="s">
@@ -3377,13 +3371,13 @@
       <c r="N23" s="35"/>
       <c r="O23" s="49"/>
     </row>
-    <row r="24" spans="1:15" s="39" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" s="39" customFormat="1" ht="27" customHeight="1">
       <c r="A24" s="36"/>
       <c r="B24" s="36" t="s">
         <v>175</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D24" s="36" t="s">
         <v>58</v>
@@ -3402,20 +3396,20 @@
         <v>34</v>
       </c>
       <c r="K24" s="50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L24" s="36"/>
       <c r="M24" s="50"/>
       <c r="N24" s="36"/>
       <c r="O24" s="50"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25" s="35"/>
       <c r="B25" s="35" t="s">
         <v>175</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D25" s="36" t="s">
         <v>59</v>
@@ -3437,20 +3431,20 @@
         <v>190</v>
       </c>
       <c r="K25" s="49" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L25" s="35"/>
       <c r="M25" s="49"/>
       <c r="N25" s="35"/>
       <c r="O25" s="49"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26" s="35"/>
       <c r="B26" s="35" t="s">
         <v>175</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D26" s="36" t="s">
         <v>60</v>
@@ -3472,20 +3466,20 @@
         <v>191</v>
       </c>
       <c r="K26" s="49" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L26" s="35"/>
       <c r="M26" s="49"/>
       <c r="N26" s="35"/>
       <c r="O26" s="49"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" s="35"/>
       <c r="B27" s="35" t="s">
         <v>175</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D27" s="36" t="s">
         <v>61</v>
@@ -3507,20 +3501,20 @@
         <v>197</v>
       </c>
       <c r="K27" s="49" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L27" s="35"/>
       <c r="M27" s="49"/>
       <c r="N27" s="35"/>
       <c r="O27" s="49"/>
     </row>
-    <row r="28" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="38.25">
       <c r="A28" s="35"/>
       <c r="B28" s="35" t="s">
         <v>175</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D28" s="36" t="s">
         <v>62</v>
@@ -3545,13 +3539,13 @@
       <c r="N28" s="35"/>
       <c r="O28" s="49"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" s="35"/>
       <c r="B29" s="35" t="s">
         <v>175</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D29" s="36" t="s">
         <v>63</v>
@@ -3571,28 +3565,28 @@
         <v>192</v>
       </c>
       <c r="K29" s="49" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L29" s="35" t="s">
         <v>195</v>
       </c>
       <c r="M29" s="49" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N29" s="35" t="s">
-        <v>237</v>
+        <v>353</v>
       </c>
       <c r="O29" s="49" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="35"/>
       <c r="B30" s="35" t="s">
         <v>175</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D30" s="36" t="s">
         <v>153</v>
@@ -3612,28 +3606,28 @@
         <v>193</v>
       </c>
       <c r="K30" s="49" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L30" s="35" t="s">
         <v>195</v>
       </c>
       <c r="M30" s="49" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N30" s="35" t="s">
         <v>198</v>
       </c>
       <c r="O30" s="49" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="35"/>
       <c r="B31" s="35" t="s">
         <v>175</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D31" s="36" t="s">
         <v>154</v>
@@ -3653,28 +3647,28 @@
         <v>194</v>
       </c>
       <c r="K31" s="49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L31" s="35" t="s">
         <v>195</v>
       </c>
       <c r="M31" s="49" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N31" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O31" s="49" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="25.5">
       <c r="A32" s="35"/>
       <c r="B32" s="35" t="s">
         <v>176</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D32" s="36" t="s">
         <v>64</v>
@@ -3701,13 +3695,13 @@
       <c r="N32" s="35"/>
       <c r="O32" s="49"/>
     </row>
-    <row r="33" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="25.5">
       <c r="A33" s="35"/>
       <c r="B33" s="35" t="s">
         <v>176</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D33" s="36" t="s">
         <v>65</v>
@@ -3734,7 +3728,7 @@
       <c r="N33" s="35"/>
       <c r="O33" s="49"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15">
       <c r="A34" s="35"/>
       <c r="B34" s="35"/>
       <c r="C34" s="49"/>
@@ -3761,7 +3755,7 @@
       <c r="N34" s="35"/>
       <c r="O34" s="49"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15">
       <c r="A35" s="35"/>
       <c r="B35" s="35"/>
       <c r="C35" s="49"/>
@@ -3788,7 +3782,7 @@
       <c r="N35" s="35"/>
       <c r="O35" s="49"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15">
       <c r="A36" s="35"/>
       <c r="B36" s="35"/>
       <c r="C36" s="49"/>
@@ -3815,7 +3809,7 @@
       <c r="N36" s="35"/>
       <c r="O36" s="49"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15">
       <c r="A37" s="35"/>
       <c r="B37" s="35"/>
       <c r="C37" s="49"/>
@@ -3842,7 +3836,7 @@
       <c r="N37" s="35"/>
       <c r="O37" s="49"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15">
       <c r="A38" s="35"/>
       <c r="B38" s="35"/>
       <c r="C38" s="49"/>
@@ -3869,7 +3863,7 @@
       <c r="N38" s="35"/>
       <c r="O38" s="49"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="49"/>
@@ -3894,7 +3888,7 @@
       <c r="N39" s="35"/>
       <c r="O39" s="49"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15">
       <c r="A40" s="35"/>
       <c r="B40" s="35"/>
       <c r="C40" s="49"/>
@@ -3919,7 +3913,7 @@
       <c r="N40" s="35"/>
       <c r="O40" s="49"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="49"/>
@@ -3944,7 +3938,7 @@
       <c r="N41" s="35"/>
       <c r="O41" s="49"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15">
       <c r="A42" s="35"/>
       <c r="B42" s="35"/>
       <c r="C42" s="49"/>
@@ -3968,14 +3962,14 @@
         <v>188</v>
       </c>
       <c r="K42" s="50" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L42" s="35"/>
       <c r="M42" s="49"/>
       <c r="N42" s="35"/>
       <c r="O42" s="49"/>
     </row>
-    <row r="43" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="25.5">
       <c r="A43" s="35"/>
       <c r="B43" s="35"/>
       <c r="C43" s="49"/>
@@ -4002,7 +3996,7 @@
       <c r="N43" s="35"/>
       <c r="O43" s="49"/>
     </row>
-    <row r="44" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="25.5">
       <c r="A44" s="35"/>
       <c r="B44" s="35"/>
       <c r="C44" s="49"/>
@@ -4029,7 +4023,7 @@
       <c r="N44" s="35"/>
       <c r="O44" s="49"/>
     </row>
-    <row r="45" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="25.5">
       <c r="A45" s="35"/>
       <c r="B45" s="35"/>
       <c r="C45" s="49"/>
@@ -4056,7 +4050,7 @@
       <c r="N45" s="35"/>
       <c r="O45" s="49"/>
     </row>
-    <row r="46" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="25.5">
       <c r="A46" s="35"/>
       <c r="B46" s="35"/>
       <c r="C46" s="49"/>
@@ -4083,7 +4077,7 @@
       <c r="N46" s="35"/>
       <c r="O46" s="49"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15">
       <c r="A47" s="35"/>
       <c r="B47" s="35"/>
       <c r="C47" s="49"/>
@@ -4110,13 +4104,13 @@
       <c r="N47" s="35"/>
       <c r="O47" s="49"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15">
       <c r="A48" s="35"/>
       <c r="B48" s="35" t="s">
         <v>175</v>
       </c>
       <c r="C48" s="49" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D48" s="36" t="s">
         <v>78</v>
@@ -4135,23 +4129,23 @@
         <v>157</v>
       </c>
       <c r="J48" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K48" s="49" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L48" s="35"/>
       <c r="M48" s="49"/>
       <c r="N48" s="35"/>
       <c r="O48" s="49"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15">
       <c r="A49" s="35"/>
       <c r="B49" s="35" t="s">
         <v>175</v>
       </c>
       <c r="C49" s="49" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D49" s="36" t="s">
         <v>130</v>
@@ -4168,23 +4162,23 @@
       </c>
       <c r="I49" s="22"/>
       <c r="J49" s="35" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K49" s="49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L49" s="35"/>
       <c r="M49" s="49"/>
       <c r="N49" s="35"/>
       <c r="O49" s="49"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15">
       <c r="A50" s="35"/>
       <c r="B50" s="35" t="s">
         <v>175</v>
       </c>
       <c r="C50" s="49" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D50" s="36" t="s">
         <v>132</v>
@@ -4201,17 +4195,17 @@
       </c>
       <c r="I50" s="22"/>
       <c r="J50" s="35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K50" s="49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L50" s="35"/>
       <c r="M50" s="49"/>
       <c r="N50" s="35"/>
       <c r="O50" s="49"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15">
       <c r="C52" s="41" t="s">
         <v>180</v>
       </c>
@@ -4222,7 +4216,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15">
       <c r="C53" s="41" t="s">
         <v>181</v>
       </c>
@@ -4230,7 +4224,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15">
       <c r="C54" s="41" t="s">
         <v>189</v>
       </c>
@@ -4238,11 +4232,11 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15">
       <c r="C55" s="39"/>
       <c r="D55" s="37"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15">
       <c r="C56" s="41" t="s">
         <v>166</v>
       </c>
@@ -4250,7 +4244,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15">
       <c r="C57" s="41" t="s">
         <v>167</v>
       </c>
@@ -4258,28 +4252,30 @@
         <v>184</v>
       </c>
       <c r="J57" s="58" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J50"/>
+  <autoFilter ref="A1:J50">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4">
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="21.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.42578125" bestFit="1" customWidth="1"/>
@@ -4289,7 +4285,7 @@
     <col min="8" max="8" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="15" t="s">
         <v>171</v>
       </c>
@@ -4315,7 +4311,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -4337,7 +4333,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -4359,7 +4355,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>138</v>
@@ -4381,7 +4377,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>140</v>
@@ -4403,7 +4399,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>139</v>
@@ -4423,13 +4419,13 @@
       <c r="G6" s="8"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>18</v>
@@ -4443,14 +4439,14 @@
       <c r="G7" s="8"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="20"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="B9" s="26" t="s">
         <v>164</v>
       </c>
@@ -4463,19 +4459,19 @@
       <c r="G9" s="20"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="21"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="B11" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="64" t="s">
-        <v>352</v>
+      <c r="C11" s="63" t="s">
+        <v>351</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -4483,7 +4479,7 @@
       <c r="G11" s="20"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="B12" s="26" t="s">
         <v>167</v>
       </c>
@@ -4495,25 +4491,25 @@
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
       <c r="H12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="57" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="57" t="s">
+      <c r="C13" s="61" t="s">
         <v>346</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>347</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="20"/>
       <c r="H13" s="19" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -4522,7 +4518,7 @@
       <c r="G14" s="20"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -4531,7 +4527,7 @@
       <c r="G15" s="20"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -4540,7 +4536,7 @@
       <c r="G16" s="20"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8">
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -4549,7 +4545,7 @@
       <c r="G17" s="20"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8">
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -4558,7 +4554,7 @@
       <c r="G18" s="20"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8">
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -4567,7 +4563,7 @@
       <c r="G19" s="20"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8">
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -4576,7 +4572,7 @@
       <c r="G20" s="20"/>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8">
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -4585,7 +4581,7 @@
       <c r="G21" s="20"/>
       <c r="H21" s="19"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8">
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -4594,7 +4590,7 @@
       <c r="G22" s="20"/>
       <c r="H22" s="19"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8">
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -4603,7 +4599,7 @@
       <c r="G23" s="20"/>
       <c r="H23" s="19"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8">
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -4612,7 +4608,7 @@
       <c r="G24" s="20"/>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8">
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -4621,7 +4617,7 @@
       <c r="G25" s="20"/>
       <c r="H25" s="19"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8">
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -4630,7 +4626,7 @@
       <c r="G26" s="20"/>
       <c r="H26" s="19"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8">
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -4639,7 +4635,7 @@
       <c r="G27" s="20"/>
       <c r="H27" s="19"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8">
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -4648,7 +4644,7 @@
       <c r="G28" s="20"/>
       <c r="H28" s="19"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8">
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -4657,7 +4653,7 @@
       <c r="G29" s="20"/>
       <c r="H29" s="19"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8">
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -4666,7 +4662,7 @@
       <c r="G30" s="20"/>
       <c r="H30" s="19"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8">
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -4675,7 +4671,7 @@
       <c r="G31" s="20"/>
       <c r="H31" s="19"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8">
       <c r="B32" s="18"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -4684,7 +4680,7 @@
       <c r="G32" s="20"/>
       <c r="H32" s="19"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8">
       <c r="B33" s="18"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -4693,7 +4689,7 @@
       <c r="G33" s="20"/>
       <c r="H33" s="19"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8">
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
@@ -4702,7 +4698,7 @@
       <c r="G34" s="20"/>
       <c r="H34" s="19"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8">
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -4711,7 +4707,7 @@
       <c r="G35" s="20"/>
       <c r="H35" s="19"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8">
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
@@ -4720,7 +4716,7 @@
       <c r="G36" s="20"/>
       <c r="H36" s="19"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8">
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
@@ -4729,7 +4725,7 @@
       <c r="G37" s="20"/>
       <c r="H37" s="19"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8">
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
@@ -4738,7 +4734,7 @@
       <c r="G38" s="20"/>
       <c r="H38" s="19"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8">
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
@@ -4747,7 +4743,7 @@
       <c r="G39" s="20"/>
       <c r="H39" s="19"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8">
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -4756,7 +4752,7 @@
       <c r="G40" s="20"/>
       <c r="H40" s="19"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8">
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -4765,7 +4761,7 @@
       <c r="G41" s="20"/>
       <c r="H41" s="19"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8">
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -4774,7 +4770,7 @@
       <c r="G42" s="20"/>
       <c r="H42" s="19"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8">
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
@@ -4783,7 +4779,7 @@
       <c r="G43" s="20"/>
       <c r="H43" s="19"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8">
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
@@ -4792,7 +4788,7 @@
       <c r="G44" s="20"/>
       <c r="H44" s="19"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8">
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -4801,7 +4797,7 @@
       <c r="G45" s="20"/>
       <c r="H45" s="19"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8">
       <c r="B46" s="18"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
@@ -4810,7 +4806,7 @@
       <c r="G46" s="20"/>
       <c r="H46" s="19"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8">
       <c r="B47" s="18"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
@@ -4819,7 +4815,7 @@
       <c r="G47" s="20"/>
       <c r="H47" s="19"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8">
       <c r="B48" s="18"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
@@ -4828,7 +4824,7 @@
       <c r="G48" s="20"/>
       <c r="H48" s="19"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8">
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
@@ -4837,7 +4833,7 @@
       <c r="G49" s="20"/>
       <c r="H49" s="19"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8">
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
@@ -4848,6 +4844,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4860,7 +4857,7 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -4875,7 +4872,7 @@
     <col min="13" max="13" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="16" t="s">
         <v>171</v>
       </c>
@@ -4883,7 +4880,7 @@
         <v>183</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>16</v>
@@ -4907,23 +4904,23 @@
         <v>161</v>
       </c>
       <c r="K1" s="47" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L1" s="16" t="s">
         <v>162</v>
       </c>
       <c r="M1" s="47" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>3</v>
@@ -4943,7 +4940,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -4970,14 +4967,14 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="56" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>38</v>
@@ -4997,14 +4994,14 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="56" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>79</v>
@@ -5024,17 +5021,17 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>18</v>
@@ -5051,12 +5048,12 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>135</v>
@@ -5072,23 +5069,23 @@
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K7" s="53" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
@@ -5103,7 +5100,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -5130,15 +5127,15 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
@@ -5153,16 +5150,16 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="38.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>175</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>102</v>
@@ -5182,16 +5179,16 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>175</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>98</v>
@@ -5209,16 +5206,16 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>175</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>103</v>
@@ -5237,19 +5234,19 @@
         <v>195</v>
       </c>
       <c r="M13" s="49" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>175</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>104</v>
@@ -5263,28 +5260,28 @@
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K14" s="49" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>195</v>
       </c>
       <c r="M14" s="49" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>175</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>105</v>
@@ -5298,25 +5295,25 @@
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K15" s="49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>195</v>
       </c>
       <c r="M15" s="49" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>64</v>
@@ -5341,16 +5338,16 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>107</v>
@@ -5372,31 +5369,31 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="D19" s="26" t="s">
         <v>164</v>
       </c>
       <c r="E19" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="D21" s="26" t="s">
         <v>166</v>
       </c>
       <c r="E21" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="D22" s="26" t="s">
         <v>167</v>
       </c>
       <c r="E22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -5414,7 +5411,7 @@
       <selection activeCell="A28" sqref="A28:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="16" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -5424,12 +5421,12 @@
     <col min="7" max="7" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="26" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="29" t="s">
         <v>202</v>
       </c>
@@ -5449,7 +5446,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="31"/>
       <c r="B3" s="5" t="s">
         <v>206</v>
@@ -5465,7 +5462,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="27" t="s">
         <v>203</v>
       </c>
@@ -5485,7 +5482,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="27" t="s">
         <v>203</v>
       </c>
@@ -5505,12 +5502,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="26" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="29" t="s">
         <v>202</v>
       </c>
@@ -5530,7 +5527,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="31"/>
       <c r="B10" s="5" t="s">
         <v>206</v>
@@ -5546,7 +5543,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="27"/>
       <c r="B11" s="5" t="s">
         <v>206</v>
@@ -5562,7 +5559,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="27" t="s">
         <v>203</v>
       </c>
@@ -5582,12 +5579,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="26" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="29" t="s">
         <v>202</v>
       </c>
@@ -5607,7 +5604,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="31"/>
       <c r="B17" s="5" t="s">
         <v>206</v>
@@ -5623,7 +5620,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="27" t="s">
         <v>203</v>
       </c>
@@ -5643,7 +5640,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="31"/>
       <c r="B19" s="5" t="s">
         <v>206</v>
@@ -5659,12 +5656,12 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="26" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="29" t="s">
         <v>202</v>
       </c>
@@ -5684,7 +5681,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="31"/>
       <c r="B24" s="5" t="s">
         <v>206</v>
@@ -5700,7 +5697,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="27" t="s">
         <v>203</v>
       </c>
@@ -5720,7 +5717,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="31"/>
       <c r="B26" s="5" t="s">
         <v>206</v>
@@ -5736,30 +5733,30 @@
       </c>
       <c r="F26" s="5"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="29" t="s">
         <v>202</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C28" s="29" t="s">
         <v>137</v>
       </c>
       <c r="D28" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="E28" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="F28" s="29" t="s">
         <v>242</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>243</v>
       </c>
       <c r="G28" s="29" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="31"/>
       <c r="B29" s="5" t="s">
         <v>206</v>
@@ -5778,7 +5775,7 @@
       </c>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="27" t="s">
         <v>203</v>
       </c>
@@ -5798,10 +5795,10 @@
         <v>213</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="31"/>
       <c r="B31" s="5" t="s">
         <v>206</v>
@@ -5820,7 +5817,7 @@
       </c>
       <c r="G31" s="5"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="26" t="s">
         <v>229</v>
       </c>
@@ -5828,7 +5825,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="26" t="s">
         <v>230</v>
       </c>
@@ -5850,7 +5847,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
@@ -5858,126 +5855,126 @@
     <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="C1" s="16" t="s">
         <v>265</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>266</v>
       </c>
       <c r="D1" s="43" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>142</v>
       </c>
       <c r="B3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" t="s">
         <v>268</v>
       </c>
-      <c r="C3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="42" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>273</v>
-      </c>
       <c r="B5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>284</v>
-      </c>
       <c r="D6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="44" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>287</v>
       </c>
-      <c r="D7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>341</v>
-      </c>
-      <c r="B8" t="s">
-        <v>342</v>
-      </c>
-      <c r="C8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>288</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="44" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B10" t="s">
         <v>289</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C10" s="44" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>290</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="D10" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/resource/SPEC/02 SPEC Validate Inspection Plan V4.0.xlsx
+++ b/resource/SPEC/02 SPEC Validate Inspection Plan V4.0.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\workspace\narmnarmz-tools\resource\SPEC\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10905" yWindow="-15" windowWidth="10710" windowHeight="5385" tabRatio="658" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="10905" yWindow="-15" windowWidth="10710" windowHeight="5385" tabRatio="658" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="01 - Header" sheetId="1" r:id="rId1"/>
@@ -1330,7 +1325,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1372,7 +1367,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1712,7 +1707,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1747,7 +1742,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1959,11 +1954,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
@@ -1974,7 +1969,7 @@
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>171</v>
       </c>
@@ -2003,7 +1998,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -2026,7 +2021,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -2049,7 +2044,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>273</v>
@@ -2072,7 +2067,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>204</v>
@@ -2095,7 +2090,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>140</v>
@@ -2118,7 +2113,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>202</v>
@@ -2141,7 +2136,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>274</v>
@@ -2164,7 +2159,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>275</v>
@@ -2187,7 +2182,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>276</v>
@@ -2212,7 +2207,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>2</v>
@@ -2233,7 +2228,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>277</v>
@@ -2254,7 +2249,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>278</v>
@@ -2273,7 +2268,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>279</v>
@@ -2292,7 +2287,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="26" t="s">
         <v>164</v>
       </c>
@@ -2300,7 +2295,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="26" t="s">
         <v>166</v>
       </c>
@@ -2308,7 +2303,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="26" t="s">
         <v>167</v>
       </c>
@@ -2334,7 +2329,7 @@
       <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -2345,7 +2340,7 @@
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>171</v>
       </c>
@@ -2374,7 +2369,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -2397,7 +2392,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -2420,7 +2415,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>217</v>
@@ -2447,7 +2442,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>140</v>
@@ -2470,7 +2465,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -2492,7 +2487,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>218</v>
@@ -2515,7 +2510,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>219</v>
@@ -2538,7 +2533,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="56" t="s">
         <v>220</v>
@@ -2559,7 +2554,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>221</v>
@@ -2582,7 +2577,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>37</v>
@@ -2607,10 +2602,10 @@
         <v>293</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="26" t="s">
         <v>164</v>
       </c>
@@ -2619,10 +2614,10 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="26" t="s">
         <v>166</v>
       </c>
@@ -2630,7 +2625,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="26" t="s">
         <v>167</v>
       </c>
@@ -2649,14 +2644,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" filterMode="1"/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="37"/>
     <col min="2" max="2" width="10.7109375" style="37" customWidth="1"/>
@@ -2676,7 +2671,7 @@
     <col min="16" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.5">
+    <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>171</v>
       </c>
@@ -2723,7 +2718,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>28</v>
       </c>
@@ -2752,7 +2747,7 @@
       <c r="N2" s="35"/>
       <c r="O2" s="49"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>28</v>
       </c>
@@ -2781,7 +2776,7 @@
       <c r="N3" s="35"/>
       <c r="O3" s="49"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>28</v>
       </c>
@@ -2810,7 +2805,7 @@
       <c r="N4" s="35"/>
       <c r="O4" s="49"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>28</v>
       </c>
@@ -2839,7 +2834,7 @@
       <c r="N5" s="35"/>
       <c r="O5" s="49"/>
     </row>
-    <row r="6" spans="1:15" ht="25.5">
+    <row r="6" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="35" t="s">
         <v>175</v>
@@ -2872,7 +2867,7 @@
       <c r="N6" s="35"/>
       <c r="O6" s="49"/>
     </row>
-    <row r="7" spans="1:15" s="60" customFormat="1" ht="25.5">
+    <row r="7" spans="1:15" s="60" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="50"/>
@@ -2901,7 +2896,7 @@
       <c r="N7" s="35"/>
       <c r="O7" s="49"/>
     </row>
-    <row r="8" spans="1:15" s="60" customFormat="1">
+    <row r="8" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="59"/>
       <c r="B8" s="59"/>
       <c r="C8" s="50"/>
@@ -2930,7 +2925,7 @@
       <c r="N8" s="59"/>
       <c r="O8" s="49"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="59"/>
       <c r="B9" s="35"/>
       <c r="C9" s="49"/>
@@ -2957,7 +2952,7 @@
       <c r="N9" s="35"/>
       <c r="O9" s="49"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="59"/>
       <c r="B10" s="35"/>
       <c r="C10" s="49"/>
@@ -2982,7 +2977,7 @@
       <c r="N10" s="35"/>
       <c r="O10" s="49"/>
     </row>
-    <row r="11" spans="1:15" ht="25.5">
+    <row r="11" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
       <c r="B11" s="35" t="s">
         <v>176</v>
@@ -3015,7 +3010,7 @@
       <c r="N11" s="35"/>
       <c r="O11" s="49"/>
     </row>
-    <row r="12" spans="1:15" ht="25.5">
+    <row r="12" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
       <c r="B12" s="35" t="s">
         <v>175</v>
@@ -3048,7 +3043,7 @@
       <c r="N12" s="35"/>
       <c r="O12" s="49"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="49"/>
@@ -3075,7 +3070,7 @@
       <c r="N13" s="35"/>
       <c r="O13" s="49"/>
     </row>
-    <row r="14" spans="1:15" ht="25.5">
+    <row r="14" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="35"/>
       <c r="C14" s="49"/>
@@ -3102,7 +3097,7 @@
       <c r="N14" s="35"/>
       <c r="O14" s="49"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="49"/>
@@ -3129,7 +3124,7 @@
       <c r="N15" s="35"/>
       <c r="O15" s="49"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
       <c r="C16" s="49"/>
@@ -3156,7 +3151,7 @@
       <c r="N16" s="35"/>
       <c r="O16" s="49"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="49"/>
@@ -3183,7 +3178,7 @@
       <c r="N17" s="35"/>
       <c r="O17" s="49"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="35" t="s">
         <v>175</v>
@@ -3218,7 +3213,7 @@
       <c r="N18" s="35"/>
       <c r="O18" s="49"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
       <c r="B19" s="35" t="s">
         <v>175</v>
@@ -3253,7 +3248,7 @@
       <c r="N19" s="35"/>
       <c r="O19" s="49"/>
     </row>
-    <row r="20" spans="1:15" ht="25.5">
+    <row r="20" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="49"/>
@@ -3282,7 +3277,7 @@
       <c r="N20" s="35"/>
       <c r="O20" s="49"/>
     </row>
-    <row r="21" spans="1:15" ht="51" customHeight="1">
+    <row r="21" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="49"/>
@@ -3312,7 +3307,7 @@
       <c r="N21" s="35"/>
       <c r="O21" s="49"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="59"/>
       <c r="B22" s="35"/>
       <c r="C22" s="49"/>
@@ -3342,7 +3337,7 @@
       <c r="N22" s="35"/>
       <c r="O22" s="49"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="59"/>
       <c r="B23" s="35"/>
       <c r="C23" s="49"/>
@@ -3371,7 +3366,7 @@
       <c r="N23" s="35"/>
       <c r="O23" s="49"/>
     </row>
-    <row r="24" spans="1:15" s="39" customFormat="1" ht="27" customHeight="1">
+    <row r="24" spans="1:15" s="39" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="36"/>
       <c r="B24" s="36" t="s">
         <v>175</v>
@@ -3403,7 +3398,7 @@
       <c r="N24" s="36"/>
       <c r="O24" s="50"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
       <c r="B25" s="35" t="s">
         <v>175</v>
@@ -3438,7 +3433,7 @@
       <c r="N25" s="35"/>
       <c r="O25" s="49"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
       <c r="B26" s="35" t="s">
         <v>175</v>
@@ -3473,7 +3468,7 @@
       <c r="N26" s="35"/>
       <c r="O26" s="49"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="35"/>
       <c r="B27" s="35" t="s">
         <v>175</v>
@@ -3508,7 +3503,7 @@
       <c r="N27" s="35"/>
       <c r="O27" s="49"/>
     </row>
-    <row r="28" spans="1:15" ht="38.25">
+    <row r="28" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A28" s="35"/>
       <c r="B28" s="35" t="s">
         <v>175</v>
@@ -3539,7 +3534,7 @@
       <c r="N28" s="35"/>
       <c r="O28" s="49"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="35"/>
       <c r="B29" s="35" t="s">
         <v>175</v>
@@ -3580,7 +3575,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="35"/>
       <c r="B30" s="35" t="s">
         <v>175</v>
@@ -3621,7 +3616,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="35"/>
       <c r="B31" s="35" t="s">
         <v>175</v>
@@ -3662,7 +3657,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="25.5">
+    <row r="32" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="35"/>
       <c r="B32" s="35" t="s">
         <v>176</v>
@@ -3695,7 +3690,7 @@
       <c r="N32" s="35"/>
       <c r="O32" s="49"/>
     </row>
-    <row r="33" spans="1:15" ht="25.5">
+    <row r="33" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="35"/>
       <c r="B33" s="35" t="s">
         <v>176</v>
@@ -3728,7 +3723,7 @@
       <c r="N33" s="35"/>
       <c r="O33" s="49"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="35"/>
       <c r="B34" s="35"/>
       <c r="C34" s="49"/>
@@ -3755,7 +3750,7 @@
       <c r="N34" s="35"/>
       <c r="O34" s="49"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="35"/>
       <c r="C35" s="49"/>
@@ -3782,7 +3777,7 @@
       <c r="N35" s="35"/>
       <c r="O35" s="49"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="35"/>
       <c r="B36" s="35"/>
       <c r="C36" s="49"/>
@@ -3809,7 +3804,7 @@
       <c r="N36" s="35"/>
       <c r="O36" s="49"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="35"/>
       <c r="B37" s="35"/>
       <c r="C37" s="49"/>
@@ -3836,7 +3831,7 @@
       <c r="N37" s="35"/>
       <c r="O37" s="49"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="35"/>
       <c r="B38" s="35"/>
       <c r="C38" s="49"/>
@@ -3863,7 +3858,7 @@
       <c r="N38" s="35"/>
       <c r="O38" s="49"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="49"/>
@@ -3888,7 +3883,7 @@
       <c r="N39" s="35"/>
       <c r="O39" s="49"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="35"/>
       <c r="B40" s="35"/>
       <c r="C40" s="49"/>
@@ -3913,7 +3908,7 @@
       <c r="N40" s="35"/>
       <c r="O40" s="49"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="49"/>
@@ -3938,7 +3933,7 @@
       <c r="N41" s="35"/>
       <c r="O41" s="49"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="35"/>
       <c r="B42" s="35"/>
       <c r="C42" s="49"/>
@@ -3969,7 +3964,7 @@
       <c r="N42" s="35"/>
       <c r="O42" s="49"/>
     </row>
-    <row r="43" spans="1:15" ht="25.5">
+    <row r="43" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="35"/>
       <c r="B43" s="35"/>
       <c r="C43" s="49"/>
@@ -3996,7 +3991,7 @@
       <c r="N43" s="35"/>
       <c r="O43" s="49"/>
     </row>
-    <row r="44" spans="1:15" ht="25.5">
+    <row r="44" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="35"/>
       <c r="B44" s="35"/>
       <c r="C44" s="49"/>
@@ -4023,7 +4018,7 @@
       <c r="N44" s="35"/>
       <c r="O44" s="49"/>
     </row>
-    <row r="45" spans="1:15" ht="25.5">
+    <row r="45" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="35"/>
       <c r="B45" s="35"/>
       <c r="C45" s="49"/>
@@ -4050,7 +4045,7 @@
       <c r="N45" s="35"/>
       <c r="O45" s="49"/>
     </row>
-    <row r="46" spans="1:15" ht="25.5">
+    <row r="46" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A46" s="35"/>
       <c r="B46" s="35"/>
       <c r="C46" s="49"/>
@@ -4077,7 +4072,7 @@
       <c r="N46" s="35"/>
       <c r="O46" s="49"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="35"/>
       <c r="B47" s="35"/>
       <c r="C47" s="49"/>
@@ -4104,7 +4099,7 @@
       <c r="N47" s="35"/>
       <c r="O47" s="49"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="35"/>
       <c r="B48" s="35" t="s">
         <v>175</v>
@@ -4139,7 +4134,7 @@
       <c r="N48" s="35"/>
       <c r="O48" s="49"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="35"/>
       <c r="B49" s="35" t="s">
         <v>175</v>
@@ -4172,7 +4167,7 @@
       <c r="N49" s="35"/>
       <c r="O49" s="49"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="35"/>
       <c r="B50" s="35" t="s">
         <v>175</v>
@@ -4205,7 +4200,7 @@
       <c r="N50" s="35"/>
       <c r="O50" s="49"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C52" s="41" t="s">
         <v>180</v>
       </c>
@@ -4216,7 +4211,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C53" s="41" t="s">
         <v>181</v>
       </c>
@@ -4224,7 +4219,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C54" s="41" t="s">
         <v>189</v>
       </c>
@@ -4232,11 +4227,11 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C55" s="39"/>
       <c r="D55" s="37"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C56" s="41" t="s">
         <v>166</v>
       </c>
@@ -4244,7 +4239,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C57" s="41" t="s">
         <v>167</v>
       </c>
@@ -4256,11 +4251,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J50">
-    <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J50"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4275,7 +4266,7 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.42578125" bestFit="1" customWidth="1"/>
@@ -4285,7 +4276,7 @@
     <col min="8" max="8" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>171</v>
       </c>
@@ -4311,7 +4302,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -4333,7 +4324,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -4355,7 +4346,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>138</v>
@@ -4377,7 +4368,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>140</v>
@@ -4399,7 +4390,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>139</v>
@@ -4419,7 +4410,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="14" t="s">
         <v>260</v>
@@ -4439,14 +4430,14 @@
       <c r="G7" s="8"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="20"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="26" t="s">
         <v>164</v>
       </c>
@@ -4459,14 +4450,14 @@
       <c r="G9" s="20"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="21"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="26" t="s">
         <v>166</v>
       </c>
@@ -4479,7 +4470,7 @@
       <c r="G11" s="20"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="26" t="s">
         <v>167</v>
       </c>
@@ -4494,7 +4485,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="57" t="s">
         <v>345</v>
       </c>
@@ -4509,7 +4500,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -4518,7 +4509,7 @@
       <c r="G14" s="20"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -4527,7 +4518,7 @@
       <c r="G15" s="20"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -4536,7 +4527,7 @@
       <c r="G16" s="20"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -4545,7 +4536,7 @@
       <c r="G17" s="20"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -4554,7 +4545,7 @@
       <c r="G18" s="20"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -4563,7 +4554,7 @@
       <c r="G19" s="20"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -4572,7 +4563,7 @@
       <c r="G20" s="20"/>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -4581,7 +4572,7 @@
       <c r="G21" s="20"/>
       <c r="H21" s="19"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -4590,7 +4581,7 @@
       <c r="G22" s="20"/>
       <c r="H22" s="19"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -4599,7 +4590,7 @@
       <c r="G23" s="20"/>
       <c r="H23" s="19"/>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -4608,7 +4599,7 @@
       <c r="G24" s="20"/>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -4617,7 +4608,7 @@
       <c r="G25" s="20"/>
       <c r="H25" s="19"/>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -4626,7 +4617,7 @@
       <c r="G26" s="20"/>
       <c r="H26" s="19"/>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -4635,7 +4626,7 @@
       <c r="G27" s="20"/>
       <c r="H27" s="19"/>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -4644,7 +4635,7 @@
       <c r="G28" s="20"/>
       <c r="H28" s="19"/>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -4653,7 +4644,7 @@
       <c r="G29" s="20"/>
       <c r="H29" s="19"/>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -4662,7 +4653,7 @@
       <c r="G30" s="20"/>
       <c r="H30" s="19"/>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -4671,7 +4662,7 @@
       <c r="G31" s="20"/>
       <c r="H31" s="19"/>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="18"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -4680,7 +4671,7 @@
       <c r="G32" s="20"/>
       <c r="H32" s="19"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="18"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -4689,7 +4680,7 @@
       <c r="G33" s="20"/>
       <c r="H33" s="19"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
@@ -4698,7 +4689,7 @@
       <c r="G34" s="20"/>
       <c r="H34" s="19"/>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -4707,7 +4698,7 @@
       <c r="G35" s="20"/>
       <c r="H35" s="19"/>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
@@ -4716,7 +4707,7 @@
       <c r="G36" s="20"/>
       <c r="H36" s="19"/>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
@@ -4725,7 +4716,7 @@
       <c r="G37" s="20"/>
       <c r="H37" s="19"/>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
@@ -4734,7 +4725,7 @@
       <c r="G38" s="20"/>
       <c r="H38" s="19"/>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
@@ -4743,7 +4734,7 @@
       <c r="G39" s="20"/>
       <c r="H39" s="19"/>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -4752,7 +4743,7 @@
       <c r="G40" s="20"/>
       <c r="H40" s="19"/>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -4761,7 +4752,7 @@
       <c r="G41" s="20"/>
       <c r="H41" s="19"/>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -4770,7 +4761,7 @@
       <c r="G42" s="20"/>
       <c r="H42" s="19"/>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
@@ -4779,7 +4770,7 @@
       <c r="G43" s="20"/>
       <c r="H43" s="19"/>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
@@ -4788,7 +4779,7 @@
       <c r="G44" s="20"/>
       <c r="H44" s="19"/>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -4797,7 +4788,7 @@
       <c r="G45" s="20"/>
       <c r="H45" s="19"/>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="18"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
@@ -4806,7 +4797,7 @@
       <c r="G46" s="20"/>
       <c r="H46" s="19"/>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="18"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
@@ -4815,7 +4806,7 @@
       <c r="G47" s="20"/>
       <c r="H47" s="19"/>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="18"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
@@ -4824,7 +4815,7 @@
       <c r="G48" s="20"/>
       <c r="H48" s="19"/>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
@@ -4833,7 +4824,7 @@
       <c r="G49" s="20"/>
       <c r="H49" s="19"/>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
@@ -4857,7 +4848,7 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -4872,7 +4863,7 @@
     <col min="13" max="13" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>171</v>
       </c>
@@ -4913,7 +4904,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -4940,7 +4931,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -4967,7 +4958,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>28</v>
       </c>
@@ -4994,7 +4985,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
@@ -5021,7 +5012,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -5048,7 +5039,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -5077,7 +5068,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -5100,7 +5091,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -5127,7 +5118,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -5150,7 +5141,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="38.25">
+    <row r="11" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>175</v>
@@ -5179,7 +5170,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>175</v>
@@ -5206,7 +5197,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>175</v>
@@ -5237,7 +5228,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>175</v>
@@ -5272,7 +5263,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>175</v>
@@ -5307,7 +5298,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>176</v>
@@ -5338,7 +5329,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
         <v>176</v>
@@ -5369,7 +5360,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D19" s="26" t="s">
         <v>164</v>
       </c>
@@ -5377,7 +5368,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D21" s="26" t="s">
         <v>166</v>
       </c>
@@ -5385,7 +5376,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D22" s="26" t="s">
         <v>167</v>
       </c>
@@ -5411,7 +5402,7 @@
       <selection activeCell="A28" sqref="A28:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -5421,12 +5412,12 @@
     <col min="7" max="7" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>202</v>
       </c>
@@ -5446,7 +5437,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="31"/>
       <c r="B3" s="5" t="s">
         <v>206</v>
@@ -5462,7 +5453,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>203</v>
       </c>
@@ -5482,7 +5473,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>203</v>
       </c>
@@ -5502,12 +5493,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>202</v>
       </c>
@@ -5527,7 +5518,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="5" t="s">
         <v>206</v>
@@ -5543,7 +5534,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5" t="s">
         <v>206</v>
@@ -5559,7 +5550,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>203</v>
       </c>
@@ -5579,12 +5570,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>202</v>
       </c>
@@ -5604,7 +5595,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="31"/>
       <c r="B17" s="5" t="s">
         <v>206</v>
@@ -5620,7 +5611,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>203</v>
       </c>
@@ -5640,7 +5631,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="31"/>
       <c r="B19" s="5" t="s">
         <v>206</v>
@@ -5656,12 +5647,12 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>202</v>
       </c>
@@ -5681,7 +5672,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="31"/>
       <c r="B24" s="5" t="s">
         <v>206</v>
@@ -5697,7 +5688,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>203</v>
       </c>
@@ -5717,7 +5708,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="31"/>
       <c r="B26" s="5" t="s">
         <v>206</v>
@@ -5733,7 +5724,7 @@
       </c>
       <c r="F26" s="5"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
         <v>202</v>
       </c>
@@ -5756,7 +5747,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="31"/>
       <c r="B29" s="5" t="s">
         <v>206</v>
@@ -5775,7 +5766,7 @@
       </c>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
         <v>203</v>
       </c>
@@ -5798,7 +5789,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="31"/>
       <c r="B31" s="5" t="s">
         <v>206</v>
@@ -5817,7 +5808,7 @@
       </c>
       <c r="G31" s="5"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="26" t="s">
         <v>229</v>
       </c>
@@ -5825,7 +5816,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="26" t="s">
         <v>230</v>
       </c>
@@ -5847,7 +5838,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
@@ -5855,7 +5846,7 @@
     <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>263</v>
       </c>
@@ -5869,7 +5860,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -5880,7 +5871,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -5891,7 +5882,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -5902,7 +5893,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>272</v>
       </c>
@@ -5913,7 +5904,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -5927,7 +5918,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -5941,7 +5932,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>340</v>
       </c>
@@ -5952,7 +5943,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>287</v>
       </c>
@@ -5963,7 +5954,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>287</v>
       </c>

--- a/resource/SPEC/02 SPEC Validate Inspection Plan V4.0.xlsx
+++ b/resource/SPEC/02 SPEC Validate Inspection Plan V4.0.xlsx
@@ -820,8 +820,432 @@
     <t>concat(PLNNR,PLNAL,VORNR,MERKNR) exist in 03-MIC</t>
   </si>
   <si>
+    <t>MEINS</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>same value with 04-Mat.Assign-MEINS</t>
+  </si>
+  <si>
+    <t>Sometimes 05-Denp. Char. dosen't have any data</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error Message </t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>"Field name" cannot be null</t>
+  </si>
+  <si>
+    <t>Leave "Field name" blank</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">if 01-Header-SLWBEZ is null and 03-MIC-SPC_IND is null, check </t>
+      <t xml:space="preserve">Leave </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Destructive Inspection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t xml:space="preserve"> blank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t xml:space="preserve"> cannot be blank</t>
+    </r>
+  </si>
+  <si>
+    <t>"Field name" is incorrect data</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Group counter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t xml:space="preserve"> is incorrect data</t>
+    </r>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Usage</t>
+  </si>
+  <si>
+    <t>From Lot Size</t>
+  </si>
+  <si>
+    <t>To Lot Size</t>
+  </si>
+  <si>
+    <t>Display Unit/Measure</t>
+  </si>
+  <si>
+    <t>Insp. points</t>
+  </si>
+  <si>
+    <t>Sample-drawing proc.</t>
+  </si>
+  <si>
+    <t>Modification rule</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Task List Description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t xml:space="preserve"> is out of length</t>
+    </r>
+  </si>
+  <si>
+    <t>in case fixed default value</t>
+  </si>
+  <si>
+    <t>"Field name" must be "fixed value"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Valid from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> must be "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>01012017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>"Field name" doesn't exist</t>
+  </si>
+  <si>
+    <t>in case search from dictionary</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Usage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> doesn't exist</t>
+    </r>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t>Duplicate code</t>
+  </si>
+  <si>
+    <t>Duplicate material assignment</t>
+  </si>
+  <si>
+    <t>in case check duplicate in 04-Mat. Assign</t>
+  </si>
+  <si>
+    <t>Error message</t>
+  </si>
+  <si>
+    <t>Plants not mapping with Header</t>
+  </si>
+  <si>
+    <t>Unit not mapping with material master</t>
+  </si>
+  <si>
+    <t>Error message 1</t>
+  </si>
+  <si>
+    <t>Quantitative: QUANTITATIVE_IND must be "X"
+Qualitative: QUANTITATIVE_IND must be blank</t>
+  </si>
+  <si>
+    <t>Incorrect sampling procedure</t>
+  </si>
+  <si>
+    <t>MEAS_UNIT doesn't exist</t>
+  </si>
+  <si>
+    <t>Conflict with TARGET_VAL_CHECK</t>
+  </si>
+  <si>
+    <t>Conflict with Target Value</t>
+  </si>
+  <si>
+    <t>Conflict with LW_TOL_LMT_IND</t>
+  </si>
+  <si>
+    <t>Conflict with UP_TOL_LMT_IND</t>
+  </si>
+  <si>
+    <t>Error message 2</t>
+  </si>
+  <si>
+    <t>Error message 3</t>
+  </si>
+  <si>
+    <t>Error Message QN/QT</t>
+  </si>
+  <si>
+    <t>Qualitative: SPC_CRITERION_KEY must be blank</t>
+  </si>
+  <si>
+    <t>Qualitative: SPC_IND must be blank</t>
+  </si>
+  <si>
+    <t>Qualitative: MEAS_UNIT must be blank</t>
+  </si>
+  <si>
+    <t>Qualitative: TARGET_VAL_CHECK must be blank</t>
+  </si>
+  <si>
+    <t>Qualitative: LW_TOL_LMT_IND must be blank</t>
+  </si>
+  <si>
+    <t>Qualitative: UP_TOL_LMT_IND must be blank</t>
+  </si>
+  <si>
+    <t>Qualitative: DEC_PLACES must be blank</t>
+  </si>
+  <si>
+    <t>Quantitative: Selected set must be blank</t>
+  </si>
+  <si>
+    <t>Quantitative: Plant for Selected set must be blank</t>
+  </si>
+  <si>
+    <t>Qualitative: FORMULA_IND must be blank</t>
+  </si>
+  <si>
+    <t>Qualitative: FORMULA_FIELD_1 must be blank</t>
+  </si>
+  <si>
+    <t>Target Value conflict with Lower Limit or Upper Limit</t>
+  </si>
+  <si>
+    <t>Lower Limit conflict with Target Value or Upper Limit</t>
+  </si>
+  <si>
+    <t>Upper Limit conflict with Target Value or Lower Limit</t>
+  </si>
+  <si>
+    <t>if FORMEL1 has value, not null</t>
+  </si>
+  <si>
+    <t>if FORMULA_IND has value, not null</t>
+  </si>
+  <si>
+    <t>if FORMEL2 has value, FORMEL1 not null</t>
+  </si>
+  <si>
+    <t>FORMULA_IND conflict with FORMEL1</t>
+  </si>
+  <si>
+    <t>FORMEL1 conflict with FORMULA_IND</t>
+  </si>
+  <si>
+    <t>Fill formular in FORMEL1 first</t>
+  </si>
+  <si>
+    <t>SPC_IND Conflict with SPC_CRITERION_KEY</t>
+  </si>
+  <si>
+    <t>Conflict with Lower Limit</t>
+  </si>
+  <si>
+    <t>Conflict with Upper Limit</t>
+  </si>
+  <si>
+    <t>Target Value conflict with Decimal place</t>
+  </si>
+  <si>
+    <t>Lower Limit conflict with Decimal place</t>
+  </si>
+  <si>
+    <t>Upper Limit conflict with Decimal place</t>
+  </si>
+  <si>
+    <t>SPC must be fixed scope</t>
+  </si>
+  <si>
+    <t>Qualitative: Target Value must be blank</t>
+  </si>
+  <si>
+    <t>Qualitative: Lower Limit must be blank</t>
+  </si>
+  <si>
+    <t>Qualitative: Upper Limit must be blank</t>
+  </si>
+  <si>
+    <t>Qualitative : Selected set cannot be blank
+Quantitative: Selected set must be blank</t>
+  </si>
+  <si>
+    <t>Qualitative : Plant for Selected set cannot be blank
+Quantitative: Plant for Selected set must be blank</t>
+  </si>
+  <si>
+    <t>Material doesn't exist in Material Assignment</t>
+  </si>
+  <si>
+    <t>if 03-MIC-LW_TOL_LMT_IND has value, not null</t>
+  </si>
+  <si>
+    <t>if 03-MIC-UP_TOL_LMT_IND has value, not null</t>
+  </si>
+  <si>
+    <t>Fixed value "X"</t>
+  </si>
+  <si>
+    <t>X must be capital letter</t>
+  </si>
+  <si>
+    <t>Qualitative: ATTRIBUTE_REQUIR must be "X"
+Quantitative: ATTRIBUTE_REQUIR must be blank</t>
+  </si>
+  <si>
+    <t>Duplicate usage within Group</t>
+  </si>
+  <si>
+    <t>Group not mapping with 01-Header</t>
+  </si>
+  <si>
+    <t>Additional Condition 3</t>
+  </si>
+  <si>
+    <t>concat(PLNNR,PLNAL,MEINS) must same</t>
+  </si>
+  <si>
+    <t>Material has different Units</t>
+  </si>
+  <si>
+    <t>Group does not exist in 03 - MIC</t>
+  </si>
+  <si>
+    <t>Group does not exist in 02 - Operation</t>
+  </si>
+  <si>
+    <t>"Field name" is out of length</t>
+  </si>
+  <si>
+    <t>concat(PLNNR,PLNAL,WERKS_A,MATNR) not duplicate within 04-Mat. Assign</t>
+  </si>
+  <si>
+    <t>Sampling Unit of Measure not mapping with 04-Mat.Assign</t>
+  </si>
+  <si>
+    <t>value greater than TOLERANZUN, lower than TOLERANZOB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if first digit of 03-MIC-VERWMERKM is "F", then 03-MIC-STICHPRVER must be "FFF0NLAB"
+else if 01-Header-SLWBEZ is null and 03-MIC-SPC_IND is null, check </t>
     </r>
     <r>
       <rPr>
@@ -896,429 +1320,6 @@
       </rPr>
       <t>07-SampPointSPC</t>
     </r>
-  </si>
-  <si>
-    <t>MEINS</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>same value with 04-Mat.Assign-MEINS</t>
-  </si>
-  <si>
-    <t>Sometimes 05-Denp. Char. dosen't have any data</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error Message </t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>"Field name" cannot be null</t>
-  </si>
-  <si>
-    <t>Leave "Field name" blank</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Leave </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Destructive Inspection</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="222"/>
-      </rPr>
-      <t xml:space="preserve"> blank</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Group</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="222"/>
-      </rPr>
-      <t xml:space="preserve"> cannot be blank</t>
-    </r>
-  </si>
-  <si>
-    <t>"Field name" is incorrect data</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Group counter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="222"/>
-      </rPr>
-      <t xml:space="preserve"> is incorrect data</t>
-    </r>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>Usage</t>
-  </si>
-  <si>
-    <t>From Lot Size</t>
-  </si>
-  <si>
-    <t>To Lot Size</t>
-  </si>
-  <si>
-    <t>Display Unit/Measure</t>
-  </si>
-  <si>
-    <t>Insp. points</t>
-  </si>
-  <si>
-    <t>Sample-drawing proc.</t>
-  </si>
-  <si>
-    <t>Modification rule</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Task List Description</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="222"/>
-      </rPr>
-      <t xml:space="preserve"> is out of length</t>
-    </r>
-  </si>
-  <si>
-    <t>in case fixed default value</t>
-  </si>
-  <si>
-    <t>"Field name" must be "fixed value"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Valid from</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> must be "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>01012017</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <t>"Field name" doesn't exist</t>
-  </si>
-  <si>
-    <t>in case search from dictionary</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Usage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> doesn't exist</t>
-    </r>
-  </si>
-  <si>
-    <t>Duplicate</t>
-  </si>
-  <si>
-    <t>Duplicate code</t>
-  </si>
-  <si>
-    <t>Duplicate material assignment</t>
-  </si>
-  <si>
-    <t>in case check duplicate in 04-Mat. Assign</t>
-  </si>
-  <si>
-    <t>Error message</t>
-  </si>
-  <si>
-    <t>Plants not mapping with Header</t>
-  </si>
-  <si>
-    <t>Unit not mapping with material master</t>
-  </si>
-  <si>
-    <t>Error message 1</t>
-  </si>
-  <si>
-    <t>Quantitative: QUANTITATIVE_IND must be "X"
-Qualitative: QUANTITATIVE_IND must be blank</t>
-  </si>
-  <si>
-    <t>Incorrect sampling procedure</t>
-  </si>
-  <si>
-    <t>MEAS_UNIT doesn't exist</t>
-  </si>
-  <si>
-    <t>Conflict with TARGET_VAL_CHECK</t>
-  </si>
-  <si>
-    <t>Conflict with Target Value</t>
-  </si>
-  <si>
-    <t>Conflict with LW_TOL_LMT_IND</t>
-  </si>
-  <si>
-    <t>Conflict with UP_TOL_LMT_IND</t>
-  </si>
-  <si>
-    <t>Error message 2</t>
-  </si>
-  <si>
-    <t>Error message 3</t>
-  </si>
-  <si>
-    <t>Error Message QN/QT</t>
-  </si>
-  <si>
-    <t>Qualitative: SPC_CRITERION_KEY must be blank</t>
-  </si>
-  <si>
-    <t>Qualitative: SPC_IND must be blank</t>
-  </si>
-  <si>
-    <t>Qualitative: MEAS_UNIT must be blank</t>
-  </si>
-  <si>
-    <t>Qualitative: TARGET_VAL_CHECK must be blank</t>
-  </si>
-  <si>
-    <t>Qualitative: LW_TOL_LMT_IND must be blank</t>
-  </si>
-  <si>
-    <t>Qualitative: UP_TOL_LMT_IND must be blank</t>
-  </si>
-  <si>
-    <t>Qualitative: DEC_PLACES must be blank</t>
-  </si>
-  <si>
-    <t>Quantitative: Selected set must be blank</t>
-  </si>
-  <si>
-    <t>Quantitative: Plant for Selected set must be blank</t>
-  </si>
-  <si>
-    <t>Qualitative: FORMULA_IND must be blank</t>
-  </si>
-  <si>
-    <t>Qualitative: FORMULA_FIELD_1 must be blank</t>
-  </si>
-  <si>
-    <t>Target Value conflict with Lower Limit or Upper Limit</t>
-  </si>
-  <si>
-    <t>Lower Limit conflict with Target Value or Upper Limit</t>
-  </si>
-  <si>
-    <t>Upper Limit conflict with Target Value or Lower Limit</t>
-  </si>
-  <si>
-    <t>if FORMEL1 has value, not null</t>
-  </si>
-  <si>
-    <t>if FORMULA_IND has value, not null</t>
-  </si>
-  <si>
-    <t>if FORMEL2 has value, FORMEL1 not null</t>
-  </si>
-  <si>
-    <t>FORMULA_IND conflict with FORMEL1</t>
-  </si>
-  <si>
-    <t>FORMEL1 conflict with FORMULA_IND</t>
-  </si>
-  <si>
-    <t>Fill formular in FORMEL1 first</t>
-  </si>
-  <si>
-    <t>SPC_IND Conflict with SPC_CRITERION_KEY</t>
-  </si>
-  <si>
-    <t>Conflict with Lower Limit</t>
-  </si>
-  <si>
-    <t>Conflict with Upper Limit</t>
-  </si>
-  <si>
-    <t>Target Value conflict with Decimal place</t>
-  </si>
-  <si>
-    <t>Lower Limit conflict with Decimal place</t>
-  </si>
-  <si>
-    <t>Upper Limit conflict with Decimal place</t>
-  </si>
-  <si>
-    <t>SPC must be fixed scope</t>
-  </si>
-  <si>
-    <t>Qualitative: Target Value must be blank</t>
-  </si>
-  <si>
-    <t>Qualitative: Lower Limit must be blank</t>
-  </si>
-  <si>
-    <t>Qualitative: Upper Limit must be blank</t>
-  </si>
-  <si>
-    <t>Qualitative : Selected set cannot be blank
-Quantitative: Selected set must be blank</t>
-  </si>
-  <si>
-    <t>Qualitative : Plant for Selected set cannot be blank
-Quantitative: Plant for Selected set must be blank</t>
-  </si>
-  <si>
-    <t>Material doesn't exist in Material Assignment</t>
-  </si>
-  <si>
-    <t>if 03-MIC-LW_TOL_LMT_IND has value, not null</t>
-  </si>
-  <si>
-    <t>if 03-MIC-UP_TOL_LMT_IND has value, not null</t>
-  </si>
-  <si>
-    <t>Fixed value "X"</t>
-  </si>
-  <si>
-    <t>X must be capital letter</t>
-  </si>
-  <si>
-    <t>Qualitative: ATTRIBUTE_REQUIR must be "X"
-Quantitative: ATTRIBUTE_REQUIR must be blank</t>
-  </si>
-  <si>
-    <t>Duplicate usage within Group</t>
-  </si>
-  <si>
-    <t>Group not mapping with 01-Header</t>
-  </si>
-  <si>
-    <t>Additional Condition 3</t>
-  </si>
-  <si>
-    <t>concat(PLNNR,PLNAL,MEINS) must same</t>
-  </si>
-  <si>
-    <t>Material has different Units</t>
-  </si>
-  <si>
-    <t>Group does not exist in 03 - MIC</t>
-  </si>
-  <si>
-    <t>Group does not exist in 02 - Operation</t>
-  </si>
-  <si>
-    <t>"Field name" is out of length</t>
-  </si>
-  <si>
-    <t>concat(PLNNR,PLNAL,WERKS_A,MATNR) not duplicate within 04-Mat. Assign</t>
-  </si>
-  <si>
-    <t>Sampling Unit of Measure not mapping with 04-Mat.Assign</t>
-  </si>
-  <si>
-    <t>value greater than TOLERANZUN, lower than TOLERANZOB</t>
   </si>
 </sst>
 </file>
@@ -1642,16 +1643,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_WA_RATES" xfId="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1995,7 +1987,7 @@
         <v>161</v>
       </c>
       <c r="I1" s="45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2047,7 +2039,7 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
@@ -2139,7 +2131,7 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>9</v>
@@ -2162,7 +2154,7 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>10</v>
@@ -2185,7 +2177,7 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>11</v>
@@ -2201,10 +2193,10 @@
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2231,7 +2223,7 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>13</v>
@@ -2252,7 +2244,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>14</v>
@@ -2271,7 +2263,7 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>15</v>
@@ -2311,7 +2303,7 @@
         <v>238</v>
       </c>
       <c r="I19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -2366,7 +2358,7 @@
         <v>161</v>
       </c>
       <c r="I1" s="45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2439,7 +2431,7 @@
         <v>172</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2596,10 +2588,10 @@
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2633,7 +2625,7 @@
         <v>168</v>
       </c>
       <c r="I16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -2647,8 +2639,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2679,7 +2671,7 @@
         <v>183</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
@@ -2703,19 +2695,19 @@
         <v>161</v>
       </c>
       <c r="K1" s="47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>162</v>
       </c>
       <c r="M1" s="47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>199</v>
       </c>
       <c r="O1" s="47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -2840,7 +2832,7 @@
         <v>175</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>46</v>
@@ -2983,7 +2975,7 @@
         <v>176</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>48</v>
@@ -3016,7 +3008,7 @@
         <v>175</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>49</v>
@@ -3184,7 +3176,7 @@
         <v>175</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>55</v>
@@ -3206,7 +3198,7 @@
         <v>187</v>
       </c>
       <c r="K18" s="50" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L18" s="35"/>
       <c r="M18" s="49"/>
@@ -3219,7 +3211,7 @@
         <v>175</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>56</v>
@@ -3241,7 +3233,7 @@
         <v>188</v>
       </c>
       <c r="K19" s="50" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L19" s="35"/>
       <c r="M19" s="49"/>
@@ -3277,7 +3269,7 @@
       <c r="N20" s="35"/>
       <c r="O20" s="49"/>
     </row>
-    <row r="21" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="49"/>
@@ -3298,10 +3290,10 @@
       </c>
       <c r="I21" s="32"/>
       <c r="J21" s="36" t="s">
-        <v>258</v>
+        <v>353</v>
       </c>
       <c r="K21" s="49" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M21" s="51"/>
       <c r="N21" s="35"/>
@@ -3328,10 +3320,10 @@
       </c>
       <c r="I22" s="22"/>
       <c r="J22" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K22" s="49" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M22" s="51"/>
       <c r="N22" s="35"/>
@@ -3372,7 +3364,7 @@
         <v>175</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D24" s="36" t="s">
         <v>58</v>
@@ -3391,7 +3383,7 @@
         <v>34</v>
       </c>
       <c r="K24" s="50" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L24" s="36"/>
       <c r="M24" s="50"/>
@@ -3404,7 +3396,7 @@
         <v>175</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D25" s="36" t="s">
         <v>59</v>
@@ -3426,7 +3418,7 @@
         <v>190</v>
       </c>
       <c r="K25" s="49" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L25" s="35"/>
       <c r="M25" s="49"/>
@@ -3439,7 +3431,7 @@
         <v>175</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D26" s="36" t="s">
         <v>60</v>
@@ -3461,7 +3453,7 @@
         <v>191</v>
       </c>
       <c r="K26" s="49" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L26" s="35"/>
       <c r="M26" s="49"/>
@@ -3474,7 +3466,7 @@
         <v>175</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D27" s="36" t="s">
         <v>61</v>
@@ -3496,7 +3488,7 @@
         <v>197</v>
       </c>
       <c r="K27" s="49" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L27" s="35"/>
       <c r="M27" s="49"/>
@@ -3509,7 +3501,7 @@
         <v>175</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D28" s="36" t="s">
         <v>62</v>
@@ -3540,7 +3532,7 @@
         <v>175</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D29" s="36" t="s">
         <v>63</v>
@@ -3560,19 +3552,19 @@
         <v>192</v>
       </c>
       <c r="K29" s="49" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L29" s="35" t="s">
         <v>195</v>
       </c>
       <c r="M29" s="49" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N29" s="35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O29" s="49" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -3581,7 +3573,7 @@
         <v>175</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D30" s="36" t="s">
         <v>153</v>
@@ -3601,19 +3593,19 @@
         <v>193</v>
       </c>
       <c r="K30" s="49" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L30" s="35" t="s">
         <v>195</v>
       </c>
       <c r="M30" s="49" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N30" s="35" t="s">
         <v>198</v>
       </c>
       <c r="O30" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -3622,7 +3614,7 @@
         <v>175</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D31" s="36" t="s">
         <v>154</v>
@@ -3642,19 +3634,19 @@
         <v>194</v>
       </c>
       <c r="K31" s="49" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L31" s="35" t="s">
         <v>195</v>
       </c>
       <c r="M31" s="49" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N31" s="35" t="s">
         <v>237</v>
       </c>
       <c r="O31" s="49" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
@@ -3663,7 +3655,7 @@
         <v>176</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D32" s="36" t="s">
         <v>64</v>
@@ -3696,7 +3688,7 @@
         <v>176</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D33" s="36" t="s">
         <v>65</v>
@@ -3957,7 +3949,7 @@
         <v>188</v>
       </c>
       <c r="K42" s="50" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L42" s="35"/>
       <c r="M42" s="49"/>
@@ -4105,7 +4097,7 @@
         <v>175</v>
       </c>
       <c r="C48" s="49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D48" s="36" t="s">
         <v>78</v>
@@ -4124,10 +4116,10 @@
         <v>157</v>
       </c>
       <c r="J48" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K48" s="49" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L48" s="35"/>
       <c r="M48" s="49"/>
@@ -4140,7 +4132,7 @@
         <v>175</v>
       </c>
       <c r="C49" s="49" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D49" s="36" t="s">
         <v>130</v>
@@ -4157,10 +4149,10 @@
       </c>
       <c r="I49" s="22"/>
       <c r="J49" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K49" s="49" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L49" s="35"/>
       <c r="M49" s="49"/>
@@ -4173,7 +4165,7 @@
         <v>175</v>
       </c>
       <c r="C50" s="49" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D50" s="36" t="s">
         <v>132</v>
@@ -4190,10 +4182,10 @@
       </c>
       <c r="I50" s="22"/>
       <c r="J50" s="35" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K50" s="49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L50" s="35"/>
       <c r="M50" s="49"/>
@@ -4247,7 +4239,7 @@
         <v>184</v>
       </c>
       <c r="J57" s="58" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -4413,10 +4405,10 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>18</v>
@@ -4462,7 +4454,7 @@
         <v>166</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -4482,22 +4474,22 @@
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
       <c r="H12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="57" t="s">
+        <v>344</v>
+      </c>
+      <c r="C13" s="61" t="s">
         <v>345</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>346</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="20"/>
       <c r="H13" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -4871,7 +4863,7 @@
         <v>183</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>16</v>
@@ -4895,13 +4887,13 @@
         <v>161</v>
       </c>
       <c r="K1" s="47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L1" s="16" t="s">
         <v>162</v>
       </c>
       <c r="M1" s="47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -5063,7 +5055,7 @@
         <v>255</v>
       </c>
       <c r="K7" s="53" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -5147,7 +5139,7 @@
         <v>175</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>248</v>
@@ -5176,7 +5168,7 @@
         <v>175</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>249</v>
@@ -5203,7 +5195,7 @@
         <v>175</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>250</v>
@@ -5225,7 +5217,7 @@
         <v>195</v>
       </c>
       <c r="M13" s="49" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -5234,7 +5226,7 @@
         <v>175</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>251</v>
@@ -5251,16 +5243,16 @@
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K14" s="49" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>195</v>
       </c>
       <c r="M14" s="49" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -5269,7 +5261,7 @@
         <v>175</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>252</v>
@@ -5286,16 +5278,16 @@
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K15" s="49" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>195</v>
       </c>
       <c r="M15" s="49" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -5304,7 +5296,7 @@
         <v>176</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>64</v>
@@ -5335,7 +5327,7 @@
         <v>176</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>253</v>
@@ -5365,7 +5357,7 @@
         <v>164</v>
       </c>
       <c r="E19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -5384,7 +5376,7 @@
         <v>257</v>
       </c>
       <c r="K22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -5786,7 +5778,7 @@
         <v>213</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -5848,13 +5840,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="C1" s="16" t="s">
         <v>264</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>265</v>
       </c>
       <c r="D1" s="43" t="s">
         <v>164</v>
@@ -5865,10 +5857,10 @@
         <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5876,10 +5868,10 @@
         <v>142</v>
       </c>
       <c r="B3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" t="s">
         <v>267</v>
-      </c>
-      <c r="C3" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5887,21 +5879,21 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>270</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5909,13 +5901,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>282</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>283</v>
-      </c>
       <c r="D6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5923,49 +5915,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="D7" t="s">
         <v>284</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="D7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B8" t="s">
         <v>340</v>
       </c>
-      <c r="B8" t="s">
-        <v>341</v>
-      </c>
       <c r="C8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" t="s">
         <v>287</v>
       </c>
-      <c r="B9" t="s">
-        <v>288</v>
-      </c>
       <c r="C9" s="44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" t="s">
         <v>289</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>289</v>
-      </c>
-      <c r="D10" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>
